--- a/main/bin/Debug/ArquivosDados/ModificaUsuario.xlsx
+++ b/main/bin/Debug/ArquivosDados/ModificaUsuario.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8F7230AA-F00A-454F-A311-58DCC640A020}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="6870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="6915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,11 +409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +484,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>123456</v>

--- a/main/bin/Debug/ArquivosDados/ModificaUsuario.xlsx
+++ b/main/bin/Debug/ArquivosDados/ModificaUsuario.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8F7230AA-F00A-454F-A311-58DCC640A020}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="6915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="6870"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -67,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,11 +408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +483,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>123456</v>
